--- a/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,3</t>
+          <t>2,74; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,47</t>
+          <t>1,42; 6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,16</t>
+          <t>2,21; 6,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,26</t>
+          <t>2,26; 5,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,77</t>
+          <t>3,45; 8,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,38</t>
+          <t>4,99; 10,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,01</t>
+          <t>2,84; 4,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,78</t>
+          <t>2,72; 5,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,33</t>
+          <t>4,01; 7,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,21</t>
+          <t>1,55; 4,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,14</t>
+          <t>1,81; 6,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,25</t>
+          <t>1,83; 5,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,19</t>
+          <t>2,18; 5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,07</t>
+          <t>4,59; 10,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,75</t>
+          <t>3,69; 9,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,13</t>
+          <t>2,23; 4,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,81</t>
+          <t>3,54; 6,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,96</t>
+          <t>3,23; 6,6</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>4,01%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,08%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,55</t>
+          <t>2,66; 5,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,71</t>
+          <t>0,23; 4,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,78</t>
+          <t>1,69; 5,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,89</t>
+          <t>2,91; 8,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,58</t>
+          <t>2,86; 10,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,81</t>
+          <t>2,61; 10,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,82</t>
+          <t>2,95; 5,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,47</t>
+          <t>0,58; 5,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,99</t>
+          <t>2,5; 5,91</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,28</t>
+          <t>1,15; 2,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,16</t>
+          <t>2,18; 6,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,27</t>
+          <t>3,61; 7,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,38</t>
+          <t>3,15; 5,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,68</t>
+          <t>1,26; 5,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,26</t>
+          <t>4,69; 8,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,71</t>
+          <t>2,4; 4,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,38</t>
+          <t>1,85; 4,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,83</t>
+          <t>4,5; 7,54</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,78</t>
+          <t>2,31; 6,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,26</t>
+          <t>2,06; 8,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,07</t>
+          <t>2,95; 8,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,99</t>
+          <t>4,04; 7,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 11,58</t>
+          <t>4,13; 50,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,71</t>
+          <t>3,84; 10,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,89</t>
+          <t>3,76; 6,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,87</t>
+          <t>3,99; 44,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,22</t>
+          <t>4,09; 8,29</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,45</t>
+          <t>1,45; 6,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,28</t>
+          <t>1,31; 16,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,45</t>
+          <t>0,0; 47,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 41,06</t>
+          <t>1,86; 4,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,38</t>
+          <t>2,46; 5,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,85</t>
+          <t>1,86; 43,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 32,29</t>
+          <t>2,07; 4,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,27</t>
+          <t>2,66; 7,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,58</t>
+          <t>4,56; 30,67</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,62</t>
+          <t>2,61; 3,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,2</t>
+          <t>2,13; 4,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,7</t>
+          <t>3,53; 5,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,65</t>
+          <t>3,53; 4,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,47</t>
+          <t>4,15; 18,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,53</t>
+          <t>5,41; 7,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,17</t>
+          <t>3,23; 4,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,09</t>
+          <t>3,62; 11,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 3,97</t>
+          <t>4,64; 6,24</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la alergía o el asma</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5839</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10685</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10988</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4929</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15876</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19386</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10768</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26561</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30374</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3994; 7965</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5193; 22600</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6522; 18821</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3230; 7382</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10323; 24359</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13794; 27928</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8200; 14040</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18074; 38378</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22949; 40614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2278</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11199</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6302</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18534</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13615</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29734</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19916</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1261; 3965</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5866; 19553</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3584; 10283</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2375; 6041</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11936; 27448</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8565; 21775</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4247; 8857</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20683; 40831</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13819; 28238</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5834</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5795</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4551</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9105</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13640</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10385</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4360; 8641</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1109; 20948</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3064; 9995</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1839; 5200</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2789; 10384</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2161; 8534</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6696; 11910</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3342; 28885</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6595; 15585</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19492</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16458</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7677</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20576</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20395</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10912</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40068</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36854</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1952; 5086</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11673; 33959</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11149; 24223</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5582; 10503</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8004; 35925</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14813; 27846</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8332; 14197</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21712; 57224</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28092; 47057</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7873</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7505</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>85673</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10434</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>94890</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18055</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1779; 5126</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4334; 18364</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4432; 13156</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5366; 10071</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17496; 216084</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5948; 16316</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7879; 13597</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25336; 280766</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12476; 25306</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8947</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3615</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19337</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>28284</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2981</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>655; 2830</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2192; 26773</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4416</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2197; 5794</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12075; 29201</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>212; 4962</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3379; 7510</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17442; 47484</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>948; 6375</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21636</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>67385</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>48789</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30743</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>165792</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>69776</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52379</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>233176</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>118565</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17861; 25727</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>44373; 92304</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>40291; 62085</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>26239; 36261</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>91643; 413733</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>58138; 84428</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46043; 58598</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>155080; 505807</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>102678; 138101</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma</t>
+          <t>Consumo de medicamentos para la alergía o el asma (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma</t>
+          <t>Consumo de medicamentos para la alergía o el asma (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,46</t>
+          <t>2,31; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,16</t>
+          <t>1,48; 5,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,17</t>
+          <t>1,89; 4,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,15</t>
+          <t>3,47; 7,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,86</t>
+          <t>2,38; 4,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,77</t>
+          <t>2,71; 5,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,89</t>
+          <t>1,69; 5,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,03</t>
+          <t>1,93; 5,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,54</t>
+          <t>1,84; 4,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,55</t>
+          <t>4,79; 10,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,65</t>
+          <t>2,18; 4,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,99</t>
+          <t>3,66; 7,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,27</t>
+          <t>2,6; 5,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,41</t>
+          <t>0,14; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,24</t>
+          <t>3,32; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 10,64</t>
+          <t>2,94; 10,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,25</t>
+          <t>3,28; 5,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,04</t>
+          <t>0,57; 4,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,99</t>
+          <t>1,15; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,33</t>
+          <t>2,33; 6,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,93</t>
+          <t>3,49; 6,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,65</t>
+          <t>1,19; 5,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,09</t>
+          <t>2,6; 4,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,88</t>
+          <t>1,9; 4,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,67</t>
+          <t>2,18; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 8,71</t>
+          <t>2,17; 8,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,58</t>
+          <t>3,82; 7,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 50,97</t>
+          <t>4,06; 52,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,48</t>
+          <t>3,65; 6,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 44,24</t>
+          <t>4,06; 44,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,25</t>
+          <t>1,45; 6,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 16,05</t>
+          <t>1,16; 15,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,9</t>
+          <t>1,9; 4,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,96</t>
+          <t>2,61; 6,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,59</t>
+          <t>1,93; 4,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,23</t>
+          <t>2,88; 7,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,77</t>
+          <t>2,56; 3,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,44</t>
+          <t>2,0; 4,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,88</t>
+          <t>3,39; 4,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 18,75</t>
+          <t>4,12; 17,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 4,11</t>
+          <t>3,13; 3,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 11,8</t>
+          <t>3,63; 11,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5412</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4929</t>
+          <t>4891</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10768</t>
+          <t>10303</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3994; 7965</t>
+          <t>3759; 7999</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5193; 22600</t>
+          <t>5422; 21613</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3230; 7382</t>
+          <t>3179; 7185</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10323; 24359</t>
+          <t>10373; 23424</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8200; 14040</t>
+          <t>7873; 13719</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18074; 38378</t>
+          <t>18012; 39544</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>6482</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1261; 3965</t>
+          <t>1526; 4808</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5866; 19553</t>
+          <t>6240; 18916</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2375; 6041</t>
+          <t>2253; 5919</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11936; 27448</t>
+          <t>12453; 26723</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4247; 8857</t>
+          <t>4650; 9423</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20683; 40831</t>
+          <t>21402; 41100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>5697</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9105</t>
+          <t>9157</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4360; 8641</t>
+          <t>4002; 8099</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1109; 20948</t>
+          <t>661; 21366</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1839; 5200</t>
+          <t>2043; 5647</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2789; 10384</t>
+          <t>2867; 10139</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6696; 11910</t>
+          <t>7071; 12243</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3342; 28885</t>
+          <t>3268; 28502</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7677</t>
+          <t>8605</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10912</t>
+          <t>11770</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1952; 5086</t>
+          <t>1958; 4840</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11673; 33959</t>
+          <t>12485; 32895</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5582; 10503</t>
+          <t>6350; 11558</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8004; 35925</t>
+          <t>7545; 35350</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8332; 14197</t>
+          <t>9145; 15169</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21712; 57224</t>
+          <t>22312; 57030</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7505</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10434</t>
+          <t>9494</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1779; 5126</t>
+          <t>1627; 4345</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4334; 18364</t>
+          <t>4565; 17955</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5366; 10071</t>
+          <t>4794; 9195</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17496; 216084</t>
+          <t>17224; 223212</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7879; 13597</t>
+          <t>7303; 12401</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25336; 280766</t>
+          <t>25748; 283275</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3615</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>655; 2830</t>
+          <t>807; 3635</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2192; 26773</t>
+          <t>1938; 26105</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2197; 5794</t>
+          <t>2326; 5673</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12075; 29201</t>
+          <t>12806; 30768</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3379; 7510</t>
+          <t>3434; 7583</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17442; 47484</t>
+          <t>18900; 48672</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21636</t>
+          <t>21610</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30743</t>
+          <t>31004</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52379</t>
+          <t>52615</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17861; 25727</t>
+          <t>18091; 26041</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44373; 92304</t>
+          <t>41558; 89720</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>26239; 36261</t>
+          <t>26515; 36005</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>91643; 413733</t>
+          <t>90865; 384437</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>46043; 58598</t>
+          <t>46700; 58738</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>155080; 505807</t>
+          <t>155752; 477545</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,32%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,9%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>5,31%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>3,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,42; 5,05</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 6,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,31; 4,91</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 5,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 6,37</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>3,48; 8,09</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 10,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,89; 4,26</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 7,84</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 10,09</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,79; 5,72</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 7,1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>2,38; 4,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 5,94</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 7,1</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,96; 5,94</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 5,25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,69; 5,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 5,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 5,25</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,77; 10,2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 9,39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,84; 4,83</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 10,27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 9,39</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,72; 6,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 6,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,18; 4,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 7,04</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 6,6</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,7%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,62%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,5%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,48; 6,71</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 5,53</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,6; 5,26</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 4,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 5,53</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,09; 10,67</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 10,31</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>3,32; 9,16</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 10,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 10,31</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,68; 6,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 5,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3,28; 5,68</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 4,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 5,91</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4,72%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>3,34%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,52; 6,32</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 7,85</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,15; 2,85</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 6,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 7,85</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,36; 6,67</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 8,81</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,49; 6,34</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 5,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 8,81</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,3; 5,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 7,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,6; 4,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 4,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 7,54</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,7%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>5,37%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,75%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14,95%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,79; 7,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 8,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>2,18; 5,84</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 8,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 8,75</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,91; 7,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 10,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>3,82; 7,33</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 52,65</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 10,52</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,77; 6,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 8,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3,65; 6,2</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 44,63</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 8,29</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>3,3%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,29%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2,92%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,4%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,31%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,98; 10,59</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 47,24</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,45; 6,54</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 15,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 47,24</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>2,44; 5,75</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 43,4</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1,9; 4,63</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 6,28</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 43,4</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>2,57; 5,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 30,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1,93; 4,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 7,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,56; 30,67</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>3,06%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>3,96%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,51%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>3,53%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,8; 4,7</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 5,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2,56; 3,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 4,31</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 5,44</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>4,39; 6,14</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 7,86</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>3,39; 4,6</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 17,42</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 7,86</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>3,82; 5,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 6,24</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>3,13; 3,94</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 11,14</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 6,24</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>60</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>11400</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10988</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>5412</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10685</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>10988</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>17588</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19386</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4891</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>15876</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19386</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>28989</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30374</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>10303</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>26561</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>30374</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5595; 19982</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6522; 18821</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3759; 7999</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5422; 21613</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6522; 18821</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>11416; 26518</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13794; 27928</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3179; 7185</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10373; 23424</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13794; 27928</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>20206; 41358</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22949; 40614</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7873; 13719</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18012; 39544</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>22949; 40614</t>
         </is>
       </c>
     </row>
@@ -1712,14 +1712,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>14</t>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12278</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2748</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11199</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6302</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>20497</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13615</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3734</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18534</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13615</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>32775</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19916</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>6482</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>29734</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>19916</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6754; 20452</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3584; 10283</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1526; 4808</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6240; 18916</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3584; 10283</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>13681; 29278</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8565; 21775</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2253; 5919</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>12453; 26723</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8565; 21775</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>23453; 43779</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13819; 28238</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>4650; 9423</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>21402; 41100</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>13819; 28238</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>53</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>9294</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5834</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>5697</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7846</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5834</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>6903</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4551</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3460</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5795</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4551</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>16197</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10385</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>9157</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13640</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10385</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3862; 17486</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3064; 9995</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4002; 8099</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>661; 21366</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3064; 9995</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3446; 11895</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2161; 8534</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2043; 5647</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2867; 10139</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2161; 8534</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>9972; 25776</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6595; 15585</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>7071; 12243</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3268; 28502</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6595; 15585</t>
         </is>
       </c>
     </row>
@@ -2043,42 +2043,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>67</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>24133</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16458</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>3165</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>19492</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16458</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>23825</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20395</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8605</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>20576</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20395</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>47958</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36854</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>11770</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40068</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>36854</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>15352; 38525</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11149; 24223</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1958; 4840</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>12485; 32895</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>11149; 24223</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>16447; 32654</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14813; 27846</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6350; 11558</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7545; 35350</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14813; 27846</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>36277; 65138</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28092; 47057</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>9145; 15169</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>22312; 57030</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>28092; 47057</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>60</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9524</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7873</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2755</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9216</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7873</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>23574</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>6739</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>85673</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>10182</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>33098</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18055</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>9494</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>94890</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>18055</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4523; 17782</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4432; 13156</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>1627; 4345</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4565; 17955</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4432; 13156</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>15962; 32086</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5948; 16316</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>4794; 9195</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>17224; 223212</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5948; 16316</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>24887; 45008</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12476; 25306</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>7303; 12401</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>25748; 283275</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>12476; 25306</t>
         </is>
       </c>
     </row>
@@ -2364,34 +2364,34 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>31</t>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>31</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6827</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>1834</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>8947</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>19961</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>3576</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>19337</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1646</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>26787</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2981</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>5410</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>28284</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>2981</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>1668; 17951</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4416</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>807; 3635</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1938; 26105</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4416</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>13341; 31453</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>212; 4962</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>2326; 5673</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>12806; 30768</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>212; 4962</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>18445; 42761</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>948; 6375</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>3434; 7583</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>18900; 48672</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>948; 6375</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>129</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>307</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>213</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>73456</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>48789</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>21610</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>67385</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>48789</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>112348</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>69776</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>31004</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>165792</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>69776</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>185804</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>118565</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>52615</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>233176</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>118565</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>56903; 95599</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>40291; 62085</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>18091; 26041</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>41558; 89720</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>40291; 62085</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>95250; 133270</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>58138; 84428</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>26515; 36005</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>90865; 384437</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>58138; 84428</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>160739; 212796</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>102678; 138101</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>46700; 58738</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>155752; 477545</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>102678; 138101</t>
         </is>
       </c>
     </row>
